--- a/Spatial/outsideSTL.xlsx
+++ b/Spatial/outsideSTL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="960" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4780" yWindow="960" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>Zip In STL</t>
   </si>
@@ -76,6 +76,30 @@
   </si>
   <si>
     <t>same intersection as previous</t>
+  </si>
+  <si>
+    <t>Hard to say - no address #</t>
+  </si>
+  <si>
+    <t>Same xy as previous</t>
+  </si>
+  <si>
+    <t>No address #</t>
+  </si>
+  <si>
+    <t>Questionable, No address #</t>
+  </si>
+  <si>
+    <t>Richmond Heights</t>
+  </si>
+  <si>
+    <t>Cusumano's Maplewood</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>I-55/Weber</t>
   </si>
 </sst>
 </file>
@@ -392,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,19 +850,433 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>360142</v>
+      </c>
+      <c r="D2">
+        <v>387090</v>
+      </c>
+      <c r="G2">
+        <v>358795</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>387119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>359227</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>350433</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>372960</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>354696</v>
+      </c>
+      <c r="G5">
+        <v>381454</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>376632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>359511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>364823</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>389750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>394095</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>354614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>355367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>392765</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>394734</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>397424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>383948</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>365735</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>369462</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>383569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>383570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>385225</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>390115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>396549</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>382576</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>352774</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>356853</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>388356</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>383350</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>359836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>359836</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>351728</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>386149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>384111</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>365905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>355502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>396257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>370128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>371867</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>382154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>351983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>353822</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>381624</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>359737</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>381898</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>366640</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>381421</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>353910</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>381283</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>379519</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>354461</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>376053</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
